--- a/script_master_data/DED-Digitalización_Adopcion IA_v2a.xlsx
+++ b/script_master_data/DED-Digitalización_Adopcion IA_v2a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1627" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FFF8DA-E763-4D9A-AC59-04BCF388C106}"/>
+  <xr:revisionPtr revIDLastSave="1630" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B35C10D-A685-46D6-9081-D25B1060AB0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -568,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4977,7 +4975,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5909,7 +5907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7670,7 +7668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8635,7 +8633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9567,7 +9565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19628,30 +19626,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AR196"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B32" sqref="B32:E33"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="110" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="110" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>0</v>
@@ -19685,17 +19683,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.600000000000001">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="14.45">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.6">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -19747,7 +19745,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="111"/>
     </row>
-    <row r="5" spans="2:44" ht="39">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -19878,7 +19876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="12.95">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
@@ -19937,7 +19935,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="12.95">
+    <row r="7" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
@@ -19996,7 +19994,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:44" ht="12.95">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
@@ -20055,7 +20053,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:44" ht="12.95">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
@@ -20114,7 +20112,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="2:44" ht="12.95">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
@@ -20173,7 +20171,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="12.95">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -20232,7 +20230,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="12.95">
+    <row r="12" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
@@ -20291,7 +20289,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="12.95">
+    <row r="13" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
@@ -20350,7 +20348,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="2:44" ht="12.95">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
@@ -20409,7 +20407,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:44" ht="12.95">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
@@ -20468,7 +20466,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:44" ht="12.95">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
@@ -20527,7 +20525,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="12.95">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
@@ -20586,7 +20584,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="2:44" ht="12.95">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
@@ -20645,7 +20643,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="2:44" ht="12.95">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -20704,7 +20702,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:44" ht="12.95">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
@@ -20763,7 +20761,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="12.95">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
@@ -20822,7 +20820,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="12.95">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
@@ -20881,7 +20879,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="12.95">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
@@ -20940,7 +20938,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="12.95">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
@@ -20999,7 +20997,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="12.95">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
@@ -21058,7 +21056,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="26" spans="2:44" ht="12.95">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
@@ -21117,7 +21115,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="27" spans="2:44" ht="12.6" customHeight="1">
+    <row r="27" spans="2:44" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>66</v>
       </c>
@@ -21176,7 +21174,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="2:44" ht="12.95">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>66</v>
       </c>
@@ -21235,7 +21233,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="29" spans="2:44" ht="12.95">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>66</v>
       </c>
@@ -21294,7 +21292,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="2:44" ht="12.95">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>66</v>
       </c>
@@ -21353,7 +21351,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="2:44" ht="12.95">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>66</v>
       </c>
@@ -21412,7 +21410,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44" ht="12.95">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="121"/>
       <c r="D32" s="10"/>
@@ -21463,7 +21461,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="12.95">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="121"/>
       <c r="D33" s="10"/>
@@ -21514,7 +21512,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="12.95">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="121"/>
       <c r="D34" s="10"/>
@@ -21565,7 +21563,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:44" ht="12.95">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="121"/>
       <c r="D35" s="10"/>
@@ -21616,7 +21614,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="12.95">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="121"/>
       <c r="D36" s="10"/>
@@ -21667,7 +21665,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:44" ht="12.95">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="121"/>
       <c r="D37" s="10"/>
@@ -21718,7 +21716,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:44" ht="12.95">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="121"/>
       <c r="D38" s="10"/>
@@ -21769,7 +21767,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:44" ht="12.95">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="121"/>
       <c r="D39" s="10"/>
@@ -21820,7 +21818,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:44" ht="12.95">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="121"/>
       <c r="D40" s="10"/>
@@ -21871,7 +21869,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="12.95">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="121"/>
       <c r="D41" s="10"/>
@@ -21922,7 +21920,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:44" ht="12.95">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="121"/>
       <c r="D42" s="10"/>
@@ -21973,7 +21971,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:44" ht="12.95">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="121"/>
       <c r="D43" s="10"/>
@@ -22024,7 +22022,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="12.95">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="121"/>
       <c r="D44" s="10"/>
@@ -22075,7 +22073,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:44" ht="12.95">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="121"/>
       <c r="D45" s="10"/>
@@ -22126,7 +22124,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:44" ht="12.95">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="121"/>
       <c r="D46" s="10"/>
@@ -22177,7 +22175,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:44" ht="12.95">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="121"/>
       <c r="D47" s="10"/>
@@ -22228,7 +22226,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:44" ht="12.95">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="121"/>
       <c r="D48" s="10"/>
@@ -22279,7 +22277,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:44" ht="12.95">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="121"/>
       <c r="D49" s="10"/>
@@ -22330,7 +22328,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:44" ht="12.95">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="121"/>
       <c r="D50" s="10"/>
@@ -22381,7 +22379,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:44" ht="12.95">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="121"/>
       <c r="D51" s="10"/>
@@ -22432,7 +22430,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="12.95">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="121"/>
       <c r="D52" s="10"/>
@@ -22483,7 +22481,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:44" ht="12.95">
+    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="121"/>
       <c r="D53" s="10"/>
@@ -22534,7 +22532,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:44" ht="12.95">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="121"/>
       <c r="D54" s="10"/>
@@ -22585,7 +22583,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:44" ht="12.95">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="121"/>
       <c r="D55" s="10"/>
@@ -22636,7 +22634,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:44" ht="12.95">
+    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="121"/>
       <c r="D56" s="10"/>
@@ -22687,7 +22685,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:44" ht="12.95">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="121"/>
       <c r="D57" s="10"/>
@@ -22738,7 +22736,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:44" ht="12.95">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="121"/>
       <c r="D58" s="10"/>
@@ -22789,7 +22787,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:44" ht="12.95">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="121"/>
       <c r="D59" s="10"/>
@@ -22840,7 +22838,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:44" ht="12.95">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="121"/>
       <c r="D60" s="10"/>
@@ -22891,7 +22889,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:44" ht="12.95">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="121"/>
       <c r="D61" s="10"/>
@@ -22942,7 +22940,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:44" ht="12.95">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="121"/>
       <c r="D62" s="10"/>
@@ -22993,7 +22991,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="12.95">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="121"/>
       <c r="D63" s="10"/>
@@ -23044,7 +23042,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:44" ht="12.95">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="121"/>
       <c r="D64" s="10"/>
@@ -23095,7 +23093,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:44" ht="12.95">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="121"/>
       <c r="D65" s="10"/>
@@ -23146,7 +23144,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="12.95">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="121"/>
       <c r="D66" s="10"/>
@@ -23197,7 +23195,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:44" ht="12.95">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="9"/>
       <c r="C67" s="121"/>
       <c r="D67" s="10"/>
@@ -23248,7 +23246,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:44" ht="12.95">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="9"/>
       <c r="C68" s="121"/>
       <c r="D68" s="10"/>
@@ -23299,7 +23297,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:44" ht="12.95">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="121"/>
       <c r="D69" s="10"/>
@@ -23350,7 +23348,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:44" ht="12.95">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="121"/>
       <c r="D70" s="10"/>
@@ -23401,7 +23399,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:44" ht="12.95">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="121"/>
       <c r="D71" s="10"/>
@@ -23452,7 +23450,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:44" ht="12.95">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="121"/>
       <c r="D72" s="10"/>
@@ -23503,7 +23501,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:44" ht="12.95">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="121"/>
       <c r="D73" s="10"/>
@@ -23554,7 +23552,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:44" ht="12.95">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="121"/>
       <c r="D74" s="10"/>
@@ -23605,7 +23603,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:44" ht="12.95">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="121"/>
       <c r="D75" s="10"/>
@@ -23656,7 +23654,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:44" ht="12.95">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="121"/>
       <c r="D76" s="10"/>
@@ -23707,7 +23705,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:44" ht="12.95">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="121"/>
       <c r="D77" s="10"/>
@@ -23758,7 +23756,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:44" ht="12.95">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="121"/>
       <c r="D78" s="10"/>
@@ -23809,7 +23807,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:44" ht="12.95">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="121"/>
       <c r="D79" s="10"/>
@@ -23860,7 +23858,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:44" ht="12.95">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="121"/>
       <c r="D80" s="10"/>
@@ -23911,7 +23909,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:44" ht="12.95">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="121"/>
       <c r="D81" s="10"/>
@@ -23962,7 +23960,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:44" ht="12.95">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="121"/>
       <c r="D82" s="10"/>
@@ -24013,7 +24011,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:44" ht="12.95">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="121"/>
       <c r="D83" s="10"/>
@@ -24064,7 +24062,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:44" ht="12.95">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="121"/>
       <c r="D84" s="10"/>
@@ -24115,7 +24113,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:44" ht="12.95">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="121"/>
       <c r="D85" s="10"/>
@@ -24166,7 +24164,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="12.95">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="121"/>
       <c r="D86" s="10"/>
@@ -24217,7 +24215,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:44" ht="12.95">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="121"/>
       <c r="D87" s="10"/>
@@ -24268,7 +24266,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="12.95">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="121"/>
       <c r="D88" s="10"/>
@@ -24319,7 +24317,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:44" ht="12.95">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="121"/>
       <c r="D89" s="10"/>
@@ -24370,7 +24368,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:44" ht="12.95">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="121"/>
       <c r="D90" s="10"/>
@@ -24421,7 +24419,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="12.95">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="121"/>
       <c r="D91" s="10"/>
@@ -24472,7 +24470,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:44" ht="12.95">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="121"/>
       <c r="D92" s="10"/>
@@ -24523,7 +24521,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:44" ht="12.95">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="121"/>
       <c r="D93" s="10"/>
@@ -24574,7 +24572,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:44" ht="12.95">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="121"/>
       <c r="D94" s="10"/>
@@ -24625,7 +24623,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:44" ht="12.95">
+    <row r="95" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="121"/>
       <c r="D95" s="10"/>
@@ -24676,7 +24674,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:44" ht="12.95">
+    <row r="96" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="121"/>
       <c r="D96" s="10"/>
@@ -24727,7 +24725,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:44" ht="12.95">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="121"/>
       <c r="D97" s="10"/>
@@ -24778,7 +24776,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:44" ht="12.95">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="121"/>
       <c r="D98" s="10"/>
@@ -24829,7 +24827,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:44" ht="12.95">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="121"/>
       <c r="D99" s="10"/>
@@ -24880,7 +24878,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:44" ht="12.95">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="121"/>
       <c r="D100" s="10"/>
@@ -24931,7 +24929,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:44" ht="12.95">
+    <row r="101" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="121"/>
       <c r="D101" s="10"/>
@@ -24982,7 +24980,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:44" ht="12.95">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="121"/>
       <c r="D102" s="10"/>
@@ -25033,7 +25031,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:44" ht="12.95">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="121"/>
       <c r="D103" s="10"/>
@@ -25084,7 +25082,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:44" ht="12.95">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="121"/>
       <c r="D104" s="10"/>
@@ -25135,7 +25133,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:44" ht="12.95">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="121"/>
       <c r="D105" s="10"/>
@@ -25186,7 +25184,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:44" ht="12.95">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="121"/>
       <c r="D106" s="10"/>
@@ -25237,7 +25235,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:44" ht="12.95">
+    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="121"/>
       <c r="D107" s="10"/>
@@ -25288,7 +25286,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:44" ht="12.95">
+    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="121"/>
       <c r="D108" s="10"/>
@@ -25339,7 +25337,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:44" ht="12.95">
+    <row r="109" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="121"/>
       <c r="D109" s="10"/>
@@ -25390,7 +25388,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:44" ht="12.95">
+    <row r="110" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="121"/>
       <c r="D110" s="10"/>
@@ -25441,7 +25439,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:44" ht="12.95">
+    <row r="111" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="121"/>
       <c r="D111" s="10"/>
@@ -25492,7 +25490,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:44" ht="12.95">
+    <row r="112" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="121"/>
       <c r="D112" s="10"/>
@@ -25543,7 +25541,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:44" ht="12.95">
+    <row r="113" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="121"/>
       <c r="D113" s="10"/>
@@ -25594,7 +25592,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:44" ht="12.95">
+    <row r="114" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="121"/>
       <c r="D114" s="10"/>
@@ -25645,7 +25643,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:44" ht="12.95">
+    <row r="115" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="121"/>
       <c r="D115" s="10"/>
@@ -25696,7 +25694,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:44" ht="12.95">
+    <row r="116" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="121"/>
       <c r="D116" s="10"/>
@@ -25747,7 +25745,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:44" ht="12.95">
+    <row r="117" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="121"/>
       <c r="D117" s="10"/>
@@ -25798,7 +25796,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:44" ht="12.95">
+    <row r="118" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="121"/>
       <c r="D118" s="10"/>
@@ -25849,7 +25847,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:44" ht="12.95">
+    <row r="119" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="121"/>
       <c r="D119" s="10"/>
@@ -25900,7 +25898,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:44" ht="12.95">
+    <row r="120" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="121"/>
       <c r="D120" s="10"/>
@@ -25951,7 +25949,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:44" ht="12.95">
+    <row r="121" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="121"/>
       <c r="D121" s="10"/>
@@ -26002,7 +26000,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:44" ht="12.95">
+    <row r="122" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="121"/>
       <c r="D122" s="10"/>
@@ -26053,7 +26051,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:44" ht="12.95">
+    <row r="123" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="121"/>
       <c r="D123" s="10"/>
@@ -26104,7 +26102,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:44" ht="12.95">
+    <row r="124" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="121"/>
       <c r="D124" s="10"/>
@@ -26155,7 +26153,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:44" ht="12.95">
+    <row r="125" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="121"/>
       <c r="D125" s="10"/>
@@ -26206,7 +26204,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:44" ht="12.95">
+    <row r="126" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="121"/>
       <c r="D126" s="10"/>
@@ -26257,7 +26255,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:44" ht="12.95">
+    <row r="127" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="121"/>
       <c r="D127" s="10"/>
@@ -26308,7 +26306,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:44" ht="12.95">
+    <row r="128" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="121"/>
       <c r="D128" s="10"/>
@@ -26359,7 +26357,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:44" ht="12.95">
+    <row r="129" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="121"/>
       <c r="D129" s="10"/>
@@ -26410,7 +26408,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:44" ht="12.95">
+    <row r="130" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="121"/>
       <c r="D130" s="10"/>
@@ -26461,7 +26459,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:44" ht="12.95">
+    <row r="131" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="121"/>
       <c r="D131" s="10"/>
@@ -26512,7 +26510,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:44" ht="12.95">
+    <row r="132" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="121"/>
       <c r="D132" s="10"/>
@@ -26563,7 +26561,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:44" ht="12.95">
+    <row r="133" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="121"/>
       <c r="D133" s="10"/>
@@ -26614,7 +26612,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:44" ht="12.95">
+    <row r="134" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="121"/>
       <c r="D134" s="10"/>
@@ -26665,7 +26663,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="12.95">
+    <row r="135" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="121"/>
       <c r="D135" s="10"/>
@@ -26716,7 +26714,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="12.95">
+    <row r="136" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="121"/>
       <c r="D136" s="10"/>
@@ -26767,7 +26765,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:44" ht="12.95">
+    <row r="137" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="121"/>
       <c r="D137" s="10"/>
@@ -26818,7 +26816,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:44" ht="12.95">
+    <row r="138" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="121"/>
       <c r="D138" s="10"/>
@@ -26869,7 +26867,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:44" ht="12.95">
+    <row r="139" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="121"/>
       <c r="D139" s="10"/>
@@ -26920,7 +26918,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="12.95">
+    <row r="140" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="121"/>
       <c r="D140" s="10"/>
@@ -26971,7 +26969,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="12.95">
+    <row r="141" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="121"/>
       <c r="D141" s="10"/>
@@ -27022,7 +27020,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="12.95">
+    <row r="142" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="121"/>
       <c r="D142" s="10"/>
@@ -27073,7 +27071,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="12.95">
+    <row r="143" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="121"/>
       <c r="D143" s="10"/>
@@ -27124,7 +27122,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="12.95">
+    <row r="144" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="121"/>
       <c r="D144" s="10"/>
@@ -27175,7 +27173,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:44" ht="12.95">
+    <row r="145" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="121"/>
       <c r="D145" s="10"/>
@@ -27226,7 +27224,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:44" ht="12.95">
+    <row r="146" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="121"/>
       <c r="D146" s="10"/>
@@ -27277,7 +27275,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:44" ht="12.95">
+    <row r="147" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="121"/>
       <c r="D147" s="10"/>
@@ -27328,7 +27326,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:44" ht="12.95">
+    <row r="148" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="121"/>
       <c r="D148" s="10"/>
@@ -27379,7 +27377,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:44" ht="12.95">
+    <row r="149" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="121"/>
       <c r="D149" s="10"/>
@@ -27430,7 +27428,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:44" ht="12.95">
+    <row r="150" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="121"/>
       <c r="D150" s="10"/>
@@ -27481,7 +27479,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:44" ht="12.95">
+    <row r="151" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="121"/>
       <c r="D151" s="10"/>
@@ -27532,7 +27530,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:44" ht="12.95">
+    <row r="152" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="121"/>
       <c r="D152" s="10"/>
@@ -27583,7 +27581,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:44" ht="12.95">
+    <row r="153" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="121"/>
       <c r="D153" s="10"/>
@@ -27634,7 +27632,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:44" ht="12.95">
+    <row r="154" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="121"/>
       <c r="D154" s="10"/>
@@ -27685,7 +27683,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:44" ht="12.95">
+    <row r="155" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="121"/>
       <c r="D155" s="10"/>
@@ -27736,7 +27734,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:44" ht="12.95">
+    <row r="156" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="121"/>
       <c r="D156" s="10"/>
@@ -27787,7 +27785,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:44" ht="12.95">
+    <row r="157" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="121"/>
       <c r="D157" s="10"/>
@@ -27838,7 +27836,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:44" ht="12.95">
+    <row r="158" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="121"/>
       <c r="D158" s="10"/>
@@ -27889,7 +27887,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:44" ht="12.95">
+    <row r="159" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="121"/>
       <c r="D159" s="10"/>
@@ -27940,7 +27938,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:44" ht="12.95">
+    <row r="160" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="121"/>
       <c r="D160" s="10"/>
@@ -27991,7 +27989,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:44" ht="12.95">
+    <row r="161" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="121"/>
       <c r="D161" s="10"/>
@@ -28042,7 +28040,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:44" ht="12.95">
+    <row r="162" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="121"/>
       <c r="D162" s="10"/>
@@ -28093,7 +28091,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:44" ht="12.95">
+    <row r="163" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="121"/>
       <c r="D163" s="10"/>
@@ -28144,7 +28142,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:44" ht="12.95">
+    <row r="164" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="121"/>
       <c r="D164" s="10"/>
@@ -28195,7 +28193,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:44" ht="12.95">
+    <row r="165" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="121"/>
       <c r="D165" s="10"/>
@@ -28246,7 +28244,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:44" ht="12.95">
+    <row r="166" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="121"/>
       <c r="D166" s="10"/>
@@ -28297,7 +28295,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:44" ht="12.95">
+    <row r="167" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="121"/>
       <c r="D167" s="10"/>
@@ -28348,7 +28346,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:44" ht="12.95">
+    <row r="168" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="121"/>
       <c r="D168" s="10"/>
@@ -28399,7 +28397,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:44" ht="12.95">
+    <row r="169" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="121"/>
       <c r="D169" s="10"/>
@@ -28450,7 +28448,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:44" ht="12.95">
+    <row r="170" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="121"/>
       <c r="D170" s="10"/>
@@ -28501,7 +28499,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:44" ht="12.95">
+    <row r="171" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="121"/>
       <c r="D171" s="10"/>
@@ -28552,7 +28550,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:44" ht="12.95">
+    <row r="172" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="121"/>
       <c r="D172" s="10"/>
@@ -28603,7 +28601,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:44" ht="12.95">
+    <row r="173" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="121"/>
       <c r="D173" s="10"/>
@@ -28654,7 +28652,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:44" ht="12.95">
+    <row r="174" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="121"/>
       <c r="D174" s="10"/>
@@ -28705,7 +28703,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:44" ht="12.95">
+    <row r="175" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="121"/>
       <c r="D175" s="10"/>
@@ -28756,7 +28754,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:44" ht="12.95">
+    <row r="176" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="121"/>
       <c r="D176" s="10"/>
@@ -28807,7 +28805,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:44" ht="12.95">
+    <row r="177" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="121"/>
       <c r="D177" s="10"/>
@@ -28858,7 +28856,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:44" ht="12.95">
+    <row r="178" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="121"/>
       <c r="D178" s="10"/>
@@ -28909,7 +28907,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:44" ht="12.95">
+    <row r="179" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B179" s="9"/>
       <c r="C179" s="121"/>
       <c r="D179" s="10"/>
@@ -28954,7 +28952,7 @@
       <c r="AQ179" s="27"/>
       <c r="AR179" s="27"/>
     </row>
-    <row r="180" spans="2:44" ht="12.95">
+    <row r="180" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="121"/>
       <c r="D180" s="10"/>
@@ -28999,7 +28997,7 @@
       <c r="AQ180" s="27"/>
       <c r="AR180" s="27"/>
     </row>
-    <row r="181" spans="2:44" ht="12.95">
+    <row r="181" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="121"/>
       <c r="D181" s="10"/>
@@ -29044,7 +29042,7 @@
       <c r="AQ181" s="27"/>
       <c r="AR181" s="27"/>
     </row>
-    <row r="182" spans="2:44" ht="12.95">
+    <row r="182" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
       <c r="C182" s="121"/>
       <c r="D182" s="10"/>
@@ -29089,7 +29087,7 @@
       <c r="AQ182" s="27"/>
       <c r="AR182" s="27"/>
     </row>
-    <row r="183" spans="2:44" ht="12.95">
+    <row r="183" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B183" s="9"/>
       <c r="C183" s="121"/>
       <c r="D183" s="10"/>
@@ -29134,7 +29132,7 @@
       <c r="AQ183" s="27"/>
       <c r="AR183" s="27"/>
     </row>
-    <row r="184" spans="2:44" ht="12.95">
+    <row r="184" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B184" s="9"/>
       <c r="C184" s="121"/>
       <c r="D184" s="10"/>
@@ -29179,7 +29177,7 @@
       <c r="AQ184" s="27"/>
       <c r="AR184" s="27"/>
     </row>
-    <row r="185" spans="2:44" ht="12.95">
+    <row r="185" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B185" s="9"/>
       <c r="C185" s="121"/>
       <c r="D185" s="10"/>
@@ -29224,7 +29222,7 @@
       <c r="AQ185" s="27"/>
       <c r="AR185" s="27"/>
     </row>
-    <row r="186" spans="2:44" ht="12.95">
+    <row r="186" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B186" s="9"/>
       <c r="C186" s="121"/>
       <c r="D186" s="10"/>
@@ -29269,7 +29267,7 @@
       <c r="AQ186" s="27"/>
       <c r="AR186" s="27"/>
     </row>
-    <row r="187" spans="2:44" ht="12.95">
+    <row r="187" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
       <c r="C187" s="121"/>
       <c r="D187" s="10"/>
@@ -29314,7 +29312,7 @@
       <c r="AQ187" s="27"/>
       <c r="AR187" s="27"/>
     </row>
-    <row r="188" spans="2:44" ht="12.95">
+    <row r="188" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="121"/>
       <c r="D188" s="10"/>
@@ -29359,7 +29357,7 @@
       <c r="AQ188" s="27"/>
       <c r="AR188" s="27"/>
     </row>
-    <row r="189" spans="2:44" ht="12.95">
+    <row r="189" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B189" s="9"/>
       <c r="C189" s="121"/>
       <c r="D189" s="10"/>
@@ -29404,7 +29402,7 @@
       <c r="AQ189" s="27"/>
       <c r="AR189" s="27"/>
     </row>
-    <row r="190" spans="2:44" ht="12.95">
+    <row r="190" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B190" s="9"/>
       <c r="C190" s="121"/>
       <c r="D190" s="10"/>
@@ -29449,7 +29447,7 @@
       <c r="AQ190" s="27"/>
       <c r="AR190" s="27"/>
     </row>
-    <row r="191" spans="2:44" ht="12.95">
+    <row r="191" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B191" s="9"/>
       <c r="C191" s="121"/>
       <c r="D191" s="10"/>
@@ -29494,7 +29492,7 @@
       <c r="AQ191" s="27"/>
       <c r="AR191" s="27"/>
     </row>
-    <row r="192" spans="2:44" ht="12.95">
+    <row r="192" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="121"/>
       <c r="D192" s="10"/>
@@ -29539,7 +29537,7 @@
       <c r="AQ192" s="27"/>
       <c r="AR192" s="27"/>
     </row>
-    <row r="193" spans="2:44" ht="12.95">
+    <row r="193" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B193" s="9"/>
       <c r="C193" s="121"/>
       <c r="D193" s="10"/>
@@ -29584,7 +29582,7 @@
       <c r="AQ193" s="27"/>
       <c r="AR193" s="27"/>
     </row>
-    <row r="194" spans="2:44" ht="12.95">
+    <row r="194" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
       <c r="C194" s="121"/>
       <c r="D194" s="10"/>
@@ -29629,7 +29627,7 @@
       <c r="AQ194" s="27"/>
       <c r="AR194" s="27"/>
     </row>
-    <row r="195" spans="2:44" ht="12.95">
+    <row r="195" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B195" s="9"/>
       <c r="C195" s="121"/>
       <c r="D195" s="10"/>
@@ -29674,7 +29672,7 @@
       <c r="AQ195" s="27"/>
       <c r="AR195" s="27"/>
     </row>
-    <row r="196" spans="2:44" ht="12.95">
+    <row r="196" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B196" s="9"/>
       <c r="C196" s="121"/>
       <c r="D196" s="10"/>
@@ -29830,77 +29828,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -29918,25 +29916,25 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="122" t="s">
         <v>82</v>
       </c>
       <c r="F3" s="122"/>
       <c r="G3" s="122"/>
     </row>
-    <row r="5" spans="3:12" ht="18.600000000000001">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="123" t="s">
         <v>83</v>
       </c>
       <c r="K5" s="124"/>
     </row>
-    <row r="6" spans="3:12" ht="18.600000000000001">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="29" t="s">
         <v>84</v>
       </c>
@@ -29968,7 +29966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="125" t="s">
         <v>94</v>
       </c>
@@ -29982,7 +29980,7 @@
       <c r="K7" s="78"/>
       <c r="L7" s="79"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="126"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -29994,7 +29992,7 @@
       <c r="K8" s="78"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="126"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
@@ -30006,7 +30004,7 @@
       <c r="K9" s="78"/>
       <c r="L9" s="80"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="126"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
@@ -30018,7 +30016,7 @@
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="126"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
@@ -30030,7 +30028,7 @@
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="126"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -30042,7 +30040,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="126"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -30054,7 +30052,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="126"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -30066,7 +30064,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="126"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -30078,7 +30076,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="126"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -30090,7 +30088,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="126"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -30102,7 +30100,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="126"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -30114,7 +30112,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="126"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -30126,7 +30124,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>95</v>
       </c>
@@ -30145,91 +30143,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.45"/>
-    <row r="2" spans="2:14" ht="23.45">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="14.45"/>
-    <row r="4" spans="2:14" ht="14.45">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>97</v>
       </c>
@@ -30238,10 +30236,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.45">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="14.45">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>19</v>
@@ -30260,7 +30258,7 @@
       </c>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="2:14" ht="14.45">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="90" t="s">
         <v>102</v>
       </c>
@@ -30285,7 +30283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="119">
         <f>D8/$D$4</f>
         <v>0</v>
@@ -30307,20 +30305,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.600000000000001">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="63" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="14.45">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.45">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14" ht="14.45">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>105</v>
       </c>
@@ -30358,7 +30356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="14.45">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="str">
         <f>AdopcionIA!H4</f>
         <v>Giss - Creación HU</v>
@@ -30408,7 +30406,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="14.45">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="str">
         <f>AdopcionIA!M4</f>
         <v>Giss - Code Documentation Helper</v>
@@ -30458,7 +30456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="14.45">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="str">
         <f>AdopcionIA!R4</f>
         <v>Giss - BBDD-Sql</v>
@@ -30508,7 +30506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="14.45">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="str">
         <f>AdopcionIA!W4</f>
         <v>Giss - Code Guide</v>
@@ -30558,7 +30556,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="14.45">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="str">
         <f>AdopcionIA!AB4</f>
         <v>Giss - Documentación Técnica</v>
@@ -30608,7 +30606,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="14.45">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="str">
         <f>AdopcionIA!AG4</f>
         <v>Pte de seleccionar Prompt</v>
@@ -30658,7 +30656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="14.45">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="str">
         <f>AdopcionIA!AL4</f>
         <v>Pte de seleccionar Prompt</v>
@@ -30708,10 +30706,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="14.45">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14" ht="14.45">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="73" t="s">
         <v>116</v>
       </c>
@@ -30744,13 +30742,13 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:14" ht="14.45"/>
-    <row r="24" spans="3:14" ht="18.600000000000001">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="14.45">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="84" t="s">
         <v>105</v>
       </c>
@@ -30770,9 +30768,9 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="3:14" ht="14.45">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="87" t="str">
-        <f>C14</f>
+        <f t="shared" ref="C26:C32" si="8">C14</f>
         <v>Giss - Creación HU</v>
       </c>
       <c r="D26" s="115">
@@ -30784,14 +30782,14 @@
         <v>0</v>
       </c>
       <c r="F26" s="88">
-        <f t="shared" ref="F26:F33" si="8">IFERROR((D26-E26)/D26,0)</f>
+        <f t="shared" ref="F26:F33" si="9">IFERROR((D26-E26)/D26,0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="91"/>
     </row>
-    <row r="27" spans="3:14" ht="14.45">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="87" t="str">
-        <f>C15</f>
+        <f t="shared" si="8"/>
         <v>Giss - Code Documentation Helper</v>
       </c>
       <c r="D27" s="115">
@@ -30803,14 +30801,14 @@
         <v>0</v>
       </c>
       <c r="F27" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H27" s="91"/>
     </row>
-    <row r="28" spans="3:14" ht="14.45">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="87" t="str">
-        <f>C16</f>
+        <f t="shared" si="8"/>
         <v>Giss - BBDD-Sql</v>
       </c>
       <c r="D28" s="115">
@@ -30822,14 +30820,14 @@
         <v>0</v>
       </c>
       <c r="F28" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H28" s="91"/>
     </row>
-    <row r="29" spans="3:14" ht="14.45">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="87" t="str">
-        <f>C17</f>
+        <f t="shared" si="8"/>
         <v>Giss - Code Guide</v>
       </c>
       <c r="D29" s="115">
@@ -30841,14 +30839,14 @@
         <v>0</v>
       </c>
       <c r="F29" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H29" s="91"/>
     </row>
-    <row r="30" spans="3:14" ht="14.45">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="87" t="str">
-        <f>C18</f>
+        <f t="shared" si="8"/>
         <v>Giss - Documentación Técnica</v>
       </c>
       <c r="D30" s="115">
@@ -30860,14 +30858,14 @@
         <v>0</v>
       </c>
       <c r="F30" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H30" s="91"/>
     </row>
-    <row r="31" spans="3:14" ht="14.45">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="87" t="str">
-        <f>C19</f>
+        <f t="shared" si="8"/>
         <v>Pte de seleccionar Prompt</v>
       </c>
       <c r="D31" s="115">
@@ -30879,14 +30877,14 @@
         <v>0</v>
       </c>
       <c r="F31" s="88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H31" s="91"/>
     </row>
-    <row r="32" spans="3:14" ht="14.45">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="87" t="str">
-        <f>C20</f>
+        <f t="shared" si="8"/>
         <v>Pte de seleccionar Prompt</v>
       </c>
       <c r="D32" s="116">
@@ -30898,12 +30896,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="89">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H32" s="91"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="73" t="s">
         <v>121</v>
       </c>
@@ -30912,11 +30910,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="74">
-        <f t="shared" ref="E33" ca="1" si="9">SUM(E26:E32)</f>
+        <f t="shared" ref="E33" ca="1" si="10">SUM(E26:E32)</f>
         <v>0</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H33" s="91"/>
@@ -30926,46 +30924,46 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45"/>
-    <row r="35" spans="2:13" ht="14.45"/>
-    <row r="36" spans="2:13" ht="14.45"/>
-    <row r="37" spans="2:13" ht="23.45">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.45">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="64"/>
     </row>
-    <row r="39" spans="2:13" ht="23.45">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64"/>
     </row>
-    <row r="40" spans="2:13" ht="23.45">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="2:13" ht="23.45">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="2:13" ht="23.45">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="64"/>
     </row>
-    <row r="43" spans="2:13" ht="23.45">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="2:13" ht="23.45">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="64"/>
     </row>
-    <row r="45" spans="2:13" ht="23.45">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="64"/>
     </row>
-    <row r="46" spans="2:13" ht="23.45">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="64"/>
     </row>
-    <row r="47" spans="2:13" ht="23.45">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="64"/>
     </row>
-    <row r="48" spans="2:13" ht="14.45"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="136" t="s">
         <v>123</v>
       </c>
@@ -31053,7 +31051,7 @@
       <c r="BM49" s="134"/>
       <c r="BN49" s="135"/>
     </row>
-    <row r="50" spans="3:66" ht="14.45">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>9</v>
       </c>
@@ -31247,7 +31245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="3:66" ht="14.45">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="s">
         <v>22</v>
       </c>
@@ -31260,7 +31258,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="55">
-        <f t="shared" ref="F51:F57" si="10">IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" ref="F51:F57" si="11">IFERROR((D51-E51)/D51,0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="42">
@@ -31288,7 +31286,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="55">
-        <f t="shared" ref="M51:M57" si="11">IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" ref="M51:M57" si="12">IFERROR((K51-L51)/K51,0)</f>
         <v>0</v>
       </c>
       <c r="N51" s="21">
@@ -31320,7 +31318,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="56">
-        <f t="shared" ref="U51:U57" si="12">IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" ref="U51:U57" si="13">IFERROR((S51-T51)/S51,0)</f>
         <v>0</v>
       </c>
       <c r="V51" s="45">
@@ -31504,7 +31502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66" ht="14.45">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="s">
         <v>46</v>
       </c>
@@ -31517,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G52" s="42">
@@ -31545,7 +31543,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N52" s="21">
@@ -31577,7 +31575,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V52" s="45">
@@ -31609,7 +31607,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="55">
-        <f t="shared" ref="AC52:AC55" si="13">IFERROR((AA52-AB52)/AA52,0)</f>
+        <f t="shared" ref="AC52:AC55" si="14">IFERROR((AA52-AB52)/AA52,0)</f>
         <v>0</v>
       </c>
       <c r="AD52" s="50">
@@ -31641,7 +31639,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="55">
-        <f t="shared" ref="AK52:AK55" si="14">IFERROR((AI52-AJ52)/AI52,0)</f>
+        <f t="shared" ref="AK52:AK55" si="15">IFERROR((AI52-AJ52)/AI52,0)</f>
         <v>0</v>
       </c>
       <c r="AL52" s="54">
@@ -31673,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="55">
-        <f t="shared" ref="AS52:AS55" si="15">IFERROR((AQ52-AR52)/AQ52,0)</f>
+        <f t="shared" ref="AS52:AS55" si="16">IFERROR((AQ52-AR52)/AQ52,0)</f>
         <v>0</v>
       </c>
       <c r="AT52" s="62">
@@ -31705,7 +31703,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="55">
-        <f t="shared" ref="BA52:BA55" si="16">IFERROR((AY52-AZ52)/AY52,0)</f>
+        <f t="shared" ref="BA52:BA55" si="17">IFERROR((AY52-AZ52)/AY52,0)</f>
         <v>0</v>
       </c>
       <c r="BB52" s="68">
@@ -31737,7 +31735,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="55">
-        <f t="shared" ref="BI52:BI55" si="17">IFERROR((BG52-BH52)/BG52,0)</f>
+        <f t="shared" ref="BI52:BI55" si="18">IFERROR((BG52-BH52)/BG52,0)</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="72">
@@ -31761,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66" ht="14.45">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="s">
         <v>67</v>
       </c>
@@ -31774,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G53" s="42">
@@ -31802,7 +31800,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N53" s="21">
@@ -31834,7 +31832,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V53" s="45">
@@ -31866,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD53" s="50">
@@ -31898,7 +31896,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL53" s="54">
@@ -31930,7 +31928,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT53" s="62">
@@ -31962,7 +31960,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB53" s="68">
@@ -31994,7 +31992,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="72">
@@ -32018,7 +32016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66" ht="14.45">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18"/>
       <c r="D54" s="42">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C54,AdopcionIA!AN$6:AN$507)</f>
@@ -32029,7 +32027,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G54" s="42">
@@ -32057,7 +32055,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N54" s="21">
@@ -32089,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V54" s="45">
@@ -32121,7 +32119,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD54" s="50">
@@ -32153,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL54" s="54">
@@ -32185,7 +32183,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT54" s="62">
@@ -32217,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB54" s="68">
@@ -32249,7 +32247,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ54" s="72">
@@ -32273,7 +32271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66" ht="14.45">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18"/>
       <c r="D55" s="42">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C55,AdopcionIA!AN$6:AN$507)</f>
@@ -32284,7 +32282,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G55" s="42">
@@ -32312,7 +32310,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N55" s="21">
@@ -32344,7 +32342,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V55" s="45">
@@ -32376,7 +32374,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD55" s="50">
@@ -32408,7 +32406,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL55" s="54">
@@ -32440,7 +32438,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AT55" s="62">
@@ -32472,7 +32470,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB55" s="68">
@@ -32504,7 +32502,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BJ55" s="72">
@@ -32528,7 +32526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66" ht="14.45">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="18"/>
       <c r="D56" s="42">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C56,AdopcionIA!AN$6:AN$507)</f>
@@ -32539,7 +32537,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G56" s="42">
@@ -32567,7 +32565,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N56" s="21">
@@ -32599,7 +32597,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V56" s="45">
@@ -32631,7 +32629,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="55">
-        <f t="shared" ref="AC56:AC57" si="18">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56:AC57" si="19">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0</v>
       </c>
       <c r="AD56" s="50">
@@ -32663,7 +32661,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="55">
-        <f t="shared" ref="AK56:AK57" si="19">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56:AK57" si="20">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0</v>
       </c>
       <c r="AL56" s="54">
@@ -32695,7 +32693,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="55">
-        <f t="shared" ref="AS56:AS57" si="20">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56:AS57" si="21">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0</v>
       </c>
       <c r="AT56" s="62">
@@ -32727,7 +32725,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="55">
-        <f t="shared" ref="BA56:BA57" si="21">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56:BA57" si="22">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0</v>
       </c>
       <c r="BB56" s="68">
@@ -32759,7 +32757,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="55">
-        <f t="shared" ref="BI56:BI57" si="22">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56:BI57" si="23">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="72">
@@ -32783,7 +32781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="18"/>
       <c r="D57" s="42">
         <f>SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!J$6:J$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!O$6:O$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!T$6:T$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!Y$6:Y$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AD$6:AD$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AI$6:AI$507) + SUMIF(AdopcionIA!$C$6:$C$507,Reporte!$C57,AdopcionIA!AN$6:AN$507)</f>
@@ -32794,7 +32792,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G57" s="42">
@@ -32822,7 +32820,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N57" s="21">
@@ -32854,7 +32852,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V57" s="45">
@@ -32886,7 +32884,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD57" s="50">
@@ -32918,7 +32916,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL57" s="54">
@@ -32950,7 +32948,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AT57" s="62">
@@ -32982,7 +32980,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BB57" s="68">
@@ -33014,7 +33012,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BJ57" s="72">
@@ -33038,10 +33036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66" ht="14.45">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="3:66" ht="14.45">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
@@ -33054,36 +33052,36 @@
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
     </row>
-    <row r="61" spans="3:66" ht="14.45">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
     </row>
-    <row r="62" spans="3:66" ht="14.45">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
     </row>
-    <row r="63" spans="3:66" ht="14.45">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
     </row>
-    <row r="64" spans="3:66" ht="14.45">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="3:13" ht="14.45">
+    <row r="65" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="3:13" ht="14.45">
+    <row r="66" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="68" spans="3:13" ht="14.45">
+    <row r="68" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="3:13" ht="14.45">
+    <row r="69" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -33096,39 +33094,39 @@
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
     </row>
-    <row r="70" spans="3:13" ht="14.45">
+    <row r="70" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="3:13" ht="14.45">
+    <row r="71" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="3:13" ht="14.45">
+    <row r="72" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
     </row>
-    <row r="73" spans="3:13" ht="14.45">
+    <row r="73" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="3:13" ht="14.45">
+    <row r="74" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="3:13" ht="14.45">
+    <row r="75" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
     </row>
-    <row r="77" spans="3:13" ht="14.45"/>
-    <row r="78" spans="3:13" ht="14.45"/>
-    <row r="79" spans="3:13" ht="14.45"/>
-    <row r="80" spans="3:13" ht="14.45"/>
-    <row r="81" ht="14.45"/>
+    <row r="77" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:I20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -33507,6 +33505,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -33707,37 +33728,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE25A9B-8CA0-467E-B9B8-6D42DE233631}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE25A9B-8CA0-467E-B9B8-6D42DE233631}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>